--- a/2015-2016/PRE_PRO/pasantes/alvaro/2015/junio/SEGUIMIENTO Y CONTRO DE PRACTICAS Y PASANTIAS_15_19_junio.xlsx
+++ b/2015-2016/PRE_PRO/pasantes/alvaro/2015/junio/SEGUIMIENTO Y CONTRO DE PRACTICAS Y PASANTIAS_15_19_junio.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INF. DE PRACTICANTES CONV. ESPC" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,11 +22,13 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0" vbProcedure="false">'SUPERVISIÓN IN-SITU'!$A$1:$L$19</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'SUPERVISIÓN IN-SITU'!$A$1:$L$19</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'SUPERVISIÓN IN-SITU'!$A$1:$L$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">'SUPERVISIÓN IN-SITU'!$A$1:$L$19</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'VISITAS INSTITUCIONES-COMUNIDAD'!$A$1:$I$22</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0" vbProcedure="false">'VISITAS INSTITUCIONES-COMUNIDAD'!$A$1:$I$22</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0_0" vbProcedure="false">'VISITAS INSTITUCIONES-COMUNIDAD'!$A$1:$I$22</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'VISITAS INSTITUCIONES-COMUNIDAD'!$A$1:$I$22</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'VISITAS INSTITUCIONES-COMUNIDAD'!$A$1:$I$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">'VISITAS INSTITUCIONES-COMUNIDAD'!$A$1:$I$22</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -807,7 +809,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -877,15 +879,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1411200</xdr:colOff>
+      <xdr:colOff>1438200</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2018880</xdr:colOff>
+      <xdr:colOff>2045520</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -900,8 +902,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7152840" y="1440"/>
-          <a:ext cx="607680" cy="531360"/>
+          <a:off x="7179840" y="1440"/>
+          <a:ext cx="607320" cy="531000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -920,16 +922,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>709560</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>240840</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>408240</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>102240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1470960</xdr:colOff>
+      <xdr:colOff>267840</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -944,8 +946,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3251160" y="240840"/>
-          <a:ext cx="761400" cy="822240"/>
+          <a:off x="2048400" y="397440"/>
+          <a:ext cx="761040" cy="821880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -965,15 +967,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>491040</xdr:colOff>
+      <xdr:colOff>518040</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>965520</xdr:colOff>
+      <xdr:colOff>992160</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:rowOff>96480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -988,8 +990,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2062440" y="117000"/>
-          <a:ext cx="474480" cy="760320"/>
+          <a:off x="2089440" y="108000"/>
+          <a:ext cx="474120" cy="759960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1009,15 +1011,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>477720</xdr:colOff>
+      <xdr:colOff>504720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>974520</xdr:colOff>
+      <xdr:colOff>1001160</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1032,8 +1034,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3513600" y="117000"/>
-          <a:ext cx="496800" cy="765000"/>
+          <a:off x="3540600" y="108000"/>
+          <a:ext cx="496440" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1053,15 +1055,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1246680</xdr:colOff>
+      <xdr:colOff>1273680</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>250200</xdr:rowOff>
+      <xdr:rowOff>241200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2089800</xdr:colOff>
+      <xdr:colOff>2116440</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>250200</xdr:rowOff>
+      <xdr:rowOff>240840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1076,8 +1078,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4596120" y="250200"/>
-          <a:ext cx="843120" cy="828360"/>
+          <a:off x="4623120" y="241200"/>
+          <a:ext cx="842760" cy="828000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1352,8 +1354,8 @@
   </sheetPr>
   <dimension ref="A1:O65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1780,8 +1782,8 @@
   </sheetPr>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
